--- a/tbg/Assets/Excel/config/IPlayerStamina.xlsx
+++ b/tbg/Assets/Excel/config/IPlayerStamina.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -448,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -456,15 +468,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -472,16 +484,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -489,8 +504,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -504,7 +522,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
